--- a/Результат/Лаб2/Вариант10.xlsx
+++ b/Результат/Лаб2/Вариант10.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\edu.local\public\studenthomes\24301055\My Documents\ИТ\Результат\Лаб2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\edu.local\public\studenthomes\24301055\My Documents\intehinprofdey\Результат\Лаб2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C38B77-2C87-4104-BEEB-89D8A40C186B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D383F4-5B40-4273-BAD6-C957A3B62CFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6795" yWindow="3945" windowWidth="28800" windowHeight="15375" activeTab="2" xr2:uid="{BA78F10A-6D23-4BCE-85E5-48B24FF311BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Диаграмма1" sheetId="6" r:id="rId2"/>
-    <sheet name="Продажи товаров" sheetId="2" r:id="rId3"/>
-    <sheet name="График функции" sheetId="3" r:id="rId4"/>
-    <sheet name="ГКО данные" sheetId="4" r:id="rId5"/>
-    <sheet name="Фильтр ГКО" sheetId="5" r:id="rId6"/>
+    <sheet name="Продажи товаров" sheetId="2" r:id="rId1"/>
+    <sheet name="Функция" sheetId="9" r:id="rId2"/>
+    <sheet name="ГКО" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ГКО данные'!$A$1:$F$8</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="5">'Фильтр ГКО'!$A$1</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="5">'Фильтр ГКО'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ГКО!$A$1:$F$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>№ прейскур.</t>
   </si>
@@ -73,15 +68,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>f(x) = (x^2 + 1)/(x - 1)</t>
-  </si>
-  <si>
-    <t>Максимум:</t>
-  </si>
-  <si>
-    <t>Минимум:</t>
-  </si>
-  <si>
     <t>№ выпуска ГКО</t>
   </si>
   <si>
@@ -100,9 +86,6 @@
     <t>Средняя взвешенная цена</t>
   </si>
   <si>
-    <t>21000 RMFS</t>
-  </si>
-  <si>
     <t>Юбка женская</t>
   </si>
   <si>
@@ -122,13 +105,40 @@
   </si>
   <si>
     <t>Кожаный плащ</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Шаг</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>Мин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21000 RMFS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22000 RMFS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23000 RMFS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +162,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,11 +253,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,9 +311,32 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -294,32 +372,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Цены на товары</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -332,6 +422,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -400,7 +499,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8B8-4BBB-A23A-6CD4E8F13A42}"/>
+              <c16:uniqueId val="{00000000-A551-4766-B861-A1FBB6AE1AE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -413,11 +512,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2090875408"/>
-        <c:axId val="2090877488"/>
+        <c:overlap val="100"/>
+        <c:axId val="728448192"/>
+        <c:axId val="578835008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090875408"/>
+        <c:axId val="728448192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +527,40 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090877488"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578835008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -435,26 +568,69 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090877488"/>
+        <c:axId val="578835008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090875408"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728448192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -466,6 +642,36 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -486,48 +692,104 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>График функции </a:t>
+              <a:t>Диаграмма функции</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>f(x) = (x^2 + 1)/(x - 1)</a:t>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>  </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'График функции'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f(x) = (x^2 + 1)/(x - 1)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'График функции'!$A$2:$A$12</c:f>
+              <c:f>Функция!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -538,81 +800,81 @@
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6</c:v>
+                  <c:v>2.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>2.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2</c:v>
+                  <c:v>3.2000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4</c:v>
+                  <c:v>3.4000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6</c:v>
+                  <c:v>3.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8000000000000003</c:v>
+                  <c:v>3.8000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>4.0000000000000018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'График функции'!$B$2:$B$12</c:f>
+              <c:f>Функция!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8666666666666663</c:v>
+                  <c:v>-27.00595041322314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8285714285714283</c:v>
+                  <c:v>-28.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8500000000000005</c:v>
+                  <c:v>-29.503668639053256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9111111111111114</c:v>
+                  <c:v>-29.544489795918366</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>-28.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1090909090909093</c:v>
+                  <c:v>-27.973124999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2333333333333334</c:v>
+                  <c:v>-26.537439446366776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3692307692307697</c:v>
+                  <c:v>-24.746666666666655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5142857142857142</c:v>
+                  <c:v>-22.640775623268681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>-20.249999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2773-4A62-A72B-6E1627F80F2A}"/>
+              <c16:uniqueId val="{00000000-E9E0-48CD-AD7C-0BEA346861AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -624,81 +886,141 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091445488"/>
-        <c:axId val="2091440080"/>
+        <c:axId val="577198432"/>
+        <c:axId val="723541536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091445488"/>
+        <c:axId val="577198432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>x</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091440080"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723541536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2091440080"/>
+        <c:axId val="723541536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>f(x)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091445488"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577198432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -710,79 +1032,1159 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6DA85003-8998-4BEA-B0D8-A96C30BC084E}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6075947"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2771DB7-E791-41CD-87ED-E40485ED8419}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="7" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A43C57AA-5F18-4682-8874-19D277464F91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EF46BA-BC5A-4BEB-AA85-57012C7DD3DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -801,6 +2203,91 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CA00B8-1B4A-483B-B452-E0AB3210B8C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.70625</cdr:x>
+      <cdr:y>0.01736</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91039</cdr:x>
+      <cdr:y>0.16318</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="3" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B225889E-4296-4656-B56C-2EC2004B435A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3228975" y="47625"/>
+          <a:ext cx="933333" cy="400000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1099,24 +2586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F419FE13-A4EB-48B4-A9B7-F1AB7C2E251F}">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74415DC9-6585-459E-8AE9-F8C4349BF0D4}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +2627,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1190,7 +2664,7 @@
         <v>602530</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1218,7 +2692,7 @@
         <v>732450</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1246,7 +2720,7 @@
         <v>352344</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1274,7 +2748,7 @@
         <v>312351</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -1302,7 +2776,7 @@
         <v>567234</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1330,7 +2804,7 @@
         <v>890233</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1358,7 +2832,7 @@
         <v>549014</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -1402,131 +2876,177 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47E7E73-8B58-41B3-AF8B-C5A98F649B52}">
-  <dimension ref="A1:E12"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9050BDF9-5585-457C-A7CD-7FDF0CB56708}">
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
+        <f>(B3-C3)/10</f>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1">
-        <f>MAX(B2:B12)</f>
-        <v>5.666666666666667</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>B3</f>
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <f>MIN(B2:B12)</f>
-        <v>4.8285714285714283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C6">
+        <f>2*B6^2+108/B6^2-59</f>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>B6-D3</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="B3">
-        <v>4.8666666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.4</v>
-      </c>
-      <c r="B4">
-        <v>4.8285714285714283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.6</v>
-      </c>
-      <c r="B5">
-        <v>4.8500000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2.8</v>
-      </c>
-      <c r="B6">
-        <v>4.9111111111111114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3.2</v>
-      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C22" si="0">2*B7^2+108/B7^2-59</f>
+        <v>-27.00595041322314</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>5.1090909090909093</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3.4</v>
-      </c>
+        <f>B7-D3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-28.73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>5.2333333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3.6</v>
-      </c>
+        <f>B8-D3</f>
+        <v>2.6000000000000005</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-29.503668639053256</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>5.3692307692307697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3.8000000000000003</v>
-      </c>
+        <f>B9-$D$3</f>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-29.544489795918366</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>5.5142857142857142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
+        <f t="shared" ref="B11:B18" si="1">B10-$D$3</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-28.999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>5.666666666666667</v>
+        <f t="shared" si="1"/>
+        <v>3.2000000000000011</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-27.973124999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000012</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-26.537439446366776</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-24.746666666666655</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000016</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-22.640775623268681</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-20.249999999999979</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <f>MAX(C6:C16)</f>
+        <v>-20.249999999999979</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <f>MIN(C6:C16)</f>
+        <v>-29.544489795918366</v>
       </c>
     </row>
   </sheetData>
@@ -1535,230 +3055,212 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEE9B81-CE5F-4565-9B9D-CCE9E33A87D3}">
-  <dimension ref="A1:F8"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC58FE7-D1D5-4B05-86D3-D008CB4232CC}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1385.83</v>
+      </c>
+      <c r="C3" s="12">
+        <v>911.78</v>
+      </c>
+      <c r="D3" s="12">
+        <v>903.1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>8.68</v>
+      </c>
+      <c r="F3" s="12">
+        <v>65.790000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="12">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="C4" s="12">
+        <v>52.17</v>
+      </c>
+      <c r="D4" s="12">
+        <v>32.17</v>
+      </c>
+      <c r="E4" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1385.83</v>
-      </c>
-      <c r="C2" s="1">
-        <v>911.78</v>
-      </c>
-      <c r="D2" s="1">
-        <v>903.1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8.68</v>
-      </c>
-      <c r="F2" s="1">
-        <v>65.790000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1385.83</v>
-      </c>
-      <c r="C3" s="1">
-        <v>911.78</v>
-      </c>
-      <c r="D3" s="1">
-        <v>903.1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8.68</v>
-      </c>
-      <c r="F3" s="1">
-        <v>65.790000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1385.83</v>
-      </c>
-      <c r="C4" s="1">
-        <v>911.78</v>
-      </c>
-      <c r="D4" s="1">
-        <v>903.1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8.68</v>
-      </c>
-      <c r="F4" s="1">
-        <v>65.790000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1385.83</v>
-      </c>
-      <c r="C5" s="1">
-        <v>911.78</v>
-      </c>
-      <c r="D5" s="1">
-        <v>903.1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8.68</v>
-      </c>
-      <c r="F5" s="1">
-        <v>65.790000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1385.83</v>
-      </c>
-      <c r="C6" s="1">
-        <v>911.78</v>
-      </c>
-      <c r="D6" s="1">
-        <v>903.1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8.68</v>
-      </c>
-      <c r="F6" s="1">
-        <v>65.790000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1385.83</v>
-      </c>
-      <c r="C7" s="1">
-        <v>911.78</v>
-      </c>
-      <c r="D7" s="1">
-        <v>903.1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8.68</v>
-      </c>
-      <c r="F7" s="1">
-        <v>65.790000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1385.83</v>
-      </c>
-      <c r="C8" s="1">
-        <v>911.78</v>
-      </c>
-      <c r="D8" s="1">
-        <v>903.1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8.68</v>
-      </c>
-      <c r="F8" s="1">
-        <v>65.790000000000006</v>
+      <c r="F4" s="12">
+        <v>78.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="12">
+        <v>320</v>
+      </c>
+      <c r="C5" s="12">
+        <v>224.61</v>
+      </c>
+      <c r="D5" s="12">
+        <v>98.75</v>
+      </c>
+      <c r="E5" s="12">
+        <v>125.86</v>
+      </c>
+      <c r="F5" s="12">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="12">
+        <v>143.07</v>
+      </c>
+      <c r="C6" s="12">
+        <v>56.71</v>
+      </c>
+      <c r="D6" s="12">
+        <v>43.15</v>
+      </c>
+      <c r="E6" s="12">
+        <v>13.56</v>
+      </c>
+      <c r="F6" s="12">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="12">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12">
+        <v>36.64</v>
+      </c>
+      <c r="D7" s="12">
+        <v>18.7</v>
+      </c>
+      <c r="E7" s="12">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="F7" s="12">
+        <v>73.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="12">
+        <v>38.76</v>
+      </c>
+      <c r="C8" s="12">
+        <v>33.14</v>
+      </c>
+      <c r="D8" s="12">
+        <v>18.43</v>
+      </c>
+      <c r="E8" s="12">
+        <v>14.71</v>
+      </c>
+      <c r="F8" s="12">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="12">
+        <v>150</v>
+      </c>
+      <c r="C9" s="12">
+        <v>60.82</v>
+      </c>
+      <c r="D9" s="12">
+        <v>92.5</v>
+      </c>
+      <c r="E9" s="12">
+        <v>-31.68</v>
+      </c>
+      <c r="F9" s="12">
+        <v>40.549999999999997</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E40419-8F4F-4535-9ED4-3E29D85AFD2F}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:F2">
-    <sortCondition ref="C1"/>
-    <sortCondition descending="1" ref="D1"/>
-  </sortState>
+  <autoFilter ref="A1:F9" xr:uid="{BDC0F6F8-C050-4570-9916-1E19EBE7F010}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="lessThan" val="100"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="greaterThan" val="50"/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A4:F8">
+      <sortCondition descending="1" ref="D1:D9"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="6">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Результат/Лаб2/Вариант10.xlsx
+++ b/Результат/Лаб2/Вариант10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\edu.local\public\studenthomes\24301055\My Documents\intehinprofdey\Результат\Лаб2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D383F4-5B40-4273-BAD6-C957A3B62CFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EFA6CC-C3E2-485A-BBA6-68A42B5A9859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6795" yWindow="3945" windowWidth="28800" windowHeight="15375" activeTab="2" xr2:uid="{BA78F10A-6D23-4BCE-85E5-48B24FF311BA}"/>
   </bookViews>
@@ -19,6 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ГКО!$A$1:$F$9</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">ГКО!$B$46:$G$46</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">ГКО!$A$12:$F$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>№ прейскур.</t>
   </si>
@@ -295,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -333,6 +335,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -833,7 +842,7 @@
             <c:numRef>
               <c:f>Функция!$C$6:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-24</c:v>
@@ -972,7 +981,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1066,6 +1075,333 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Функция!$B$6:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Функция!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-27.00595041322314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-29.503668639053256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-29.544489795918366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-28.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-27.973124999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-26.537439446366776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-24.746666666666655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-22.640775623268681</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-20.249999999999979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43C6-4BFF-B67C-D95217521718}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="163873183"/>
+        <c:axId val="166137807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="163873183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166137807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166137807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163873183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -1143,6 +1479,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -2145,6 +2521,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2209,16 +3101,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2238,6 +3130,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DD55A7-BF9A-4A1E-90C2-278B4688DF03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2589,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74415DC9-6585-459E-8AE9-F8C4349BF0D4}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,11 +3580,11 @@
         <v>80000</v>
       </c>
       <c r="G2" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H2" s="6" t="str">
         <f>IF(G2/D2&gt;0.8,"востребован","не востребован")</f>
-        <v>востребован</v>
+        <v>не востребован</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2885,7 +3813,7 @@
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C16" sqref="C6:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +3854,7 @@
         <f>B3</f>
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="17">
         <f>2*B6^2+108/B6^2-59</f>
         <v>-24</v>
       </c>
@@ -2936,8 +3864,8 @@
         <f>B6-D3</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7">
-        <f t="shared" ref="C7:C22" si="0">2*B7^2+108/B7^2-59</f>
+      <c r="C7" s="17">
+        <f t="shared" ref="C7:C16" si="0">2*B7^2+108/B7^2-59</f>
         <v>-27.00595041322314</v>
       </c>
     </row>
@@ -2946,7 +3874,7 @@
         <f>B7-D3</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
         <v>-28.73</v>
       </c>
@@ -2956,7 +3884,7 @@
         <f>B8-D3</f>
         <v>2.6000000000000005</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>-29.503668639053256</v>
       </c>
@@ -2966,27 +3894,27 @@
         <f>B9-$D$3</f>
         <v>2.8000000000000007</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
         <v>-29.544489795918366</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" ref="B11:B18" si="1">B10-$D$3</f>
+        <f>B10-$D$3</f>
         <v>3.0000000000000009</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
         <v>-28.999999999999996</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B11:B16" si="1">B11-$D$3</f>
         <v>3.2000000000000011</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
         <v>-27.973124999999992</v>
       </c>
@@ -2996,7 +3924,7 @@
         <f t="shared" si="1"/>
         <v>3.4000000000000012</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
         <v>-26.537439446366776</v>
       </c>
@@ -3006,7 +3934,7 @@
         <f t="shared" si="1"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
         <v>-24.746666666666655</v>
       </c>
@@ -3016,7 +3944,7 @@
         <f t="shared" si="1"/>
         <v>3.8000000000000016</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
         <v>-22.640775623268681</v>
       </c>
@@ -3026,7 +3954,7 @@
         <f t="shared" si="1"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>-20.249999999999979</v>
       </c>
@@ -3057,11 +3985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC58FE7-D1D5-4B05-86D3-D008CB4232CC}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,95 +3996,95 @@
     <col min="1" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="12">
+        <v>38.76</v>
+      </c>
+      <c r="C3" s="12">
+        <v>33.14</v>
+      </c>
+      <c r="D3" s="12">
+        <v>18.43</v>
+      </c>
+      <c r="E3" s="12">
+        <v>14.71</v>
+      </c>
+      <c r="F3" s="12">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12">
-        <v>1385.83</v>
-      </c>
-      <c r="C3" s="12">
-        <v>911.78</v>
-      </c>
-      <c r="D3" s="12">
-        <v>903.1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>8.68</v>
-      </c>
-      <c r="F3" s="12">
-        <v>65.790000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="12">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12">
+        <v>36.64</v>
+      </c>
+      <c r="D4" s="12">
+        <v>18.7</v>
+      </c>
+      <c r="E4" s="12">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="F4" s="12">
+        <v>73.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B5" s="12">
         <v>66.650000000000006</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="12">
         <v>52.17</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D5" s="12">
         <v>32.17</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E5" s="12">
         <v>20</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F5" s="12">
         <v>78.27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="12">
-        <v>320</v>
-      </c>
-      <c r="C5" s="12">
-        <v>224.61</v>
-      </c>
-      <c r="D5" s="12">
-        <v>98.75</v>
-      </c>
-      <c r="E5" s="12">
-        <v>125.86</v>
-      </c>
-      <c r="F5" s="12">
-        <v>70.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
@@ -3177,89 +4104,615 @@
         <v>39.64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="12">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C7" s="12">
-        <v>36.64</v>
+        <v>60.82</v>
       </c>
       <c r="D7" s="12">
-        <v>18.7</v>
+        <v>92.5</v>
       </c>
       <c r="E7" s="12">
-        <v>17.940000000000001</v>
+        <v>-31.68</v>
       </c>
       <c r="F7" s="12">
-        <v>73.28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40.549999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="12">
-        <v>38.76</v>
+        <v>320</v>
       </c>
       <c r="C8" s="12">
-        <v>33.14</v>
+        <v>224.61</v>
       </c>
       <c r="D8" s="12">
-        <v>18.43</v>
+        <v>98.75</v>
       </c>
       <c r="E8" s="12">
-        <v>14.71</v>
+        <v>125.86</v>
       </c>
       <c r="F8" s="12">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="12">
+        <v>1385.83</v>
+      </c>
+      <c r="C9" s="12">
+        <v>911.78</v>
+      </c>
+      <c r="D9" s="12">
+        <v>903.1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>8.68</v>
+      </c>
+      <c r="F9" s="12">
+        <v>65.790000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="L13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="12">
+        <v>38.76</v>
+      </c>
+      <c r="N13" s="12">
+        <v>33.14</v>
+      </c>
+      <c r="O13" s="12">
+        <v>18.43</v>
+      </c>
+      <c r="P13" s="12">
+        <v>14.71</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="L14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="12">
+        <v>50</v>
+      </c>
+      <c r="N14" s="12">
+        <v>36.64</v>
+      </c>
+      <c r="O14" s="12">
+        <v>18.7</v>
+      </c>
+      <c r="P14" s="12">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>73.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="12">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="N15" s="12">
+        <v>52.17</v>
+      </c>
+      <c r="O15" s="12">
+        <v>32.17</v>
+      </c>
+      <c r="P15" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>78.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="12">
+        <v>143.07</v>
+      </c>
+      <c r="N16" s="12">
+        <v>56.71</v>
+      </c>
+      <c r="O16" s="12">
+        <v>43.15</v>
+      </c>
+      <c r="P16" s="12">
+        <v>13.56</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="12">
         <v>150</v>
       </c>
-      <c r="C9" s="12">
+      <c r="N17" s="12">
         <v>60.82</v>
       </c>
-      <c r="D9" s="12">
+      <c r="O17" s="12">
         <v>92.5</v>
       </c>
-      <c r="E9" s="12">
+      <c r="P17" s="12">
         <v>-31.68</v>
       </c>
-      <c r="F9" s="12">
+      <c r="Q17" s="12">
         <v>40.549999999999997</v>
       </c>
     </row>
+    <row r="18" spans="4:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="12">
+        <v>320</v>
+      </c>
+      <c r="N18" s="12">
+        <v>224.61</v>
+      </c>
+      <c r="O18" s="12">
+        <v>98.75</v>
+      </c>
+      <c r="P18" s="12">
+        <v>125.86</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1385.83</v>
+      </c>
+      <c r="N19" s="12">
+        <v>911.78</v>
+      </c>
+      <c r="O19" s="12">
+        <v>903.1</v>
+      </c>
+      <c r="P19" s="12">
+        <v>8.68</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>65.790000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="4:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="4:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="12">
+        <v>38.76</v>
+      </c>
+      <c r="F30" s="12">
+        <v>33.14</v>
+      </c>
+      <c r="G30" s="12">
+        <v>18.43</v>
+      </c>
+      <c r="H30" s="12">
+        <v>14.71</v>
+      </c>
+      <c r="I30" s="12">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="12">
+        <v>50</v>
+      </c>
+      <c r="F31" s="12">
+        <v>36.64</v>
+      </c>
+      <c r="G31" s="12">
+        <v>18.7</v>
+      </c>
+      <c r="H31" s="12">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="I31" s="12">
+        <v>73.28</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="12">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="F32" s="12">
+        <v>52.17</v>
+      </c>
+      <c r="G32" s="12">
+        <v>32.17</v>
+      </c>
+      <c r="H32" s="12">
+        <v>20</v>
+      </c>
+      <c r="I32" s="12">
+        <v>78.27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="12">
+        <v>143.07</v>
+      </c>
+      <c r="F33" s="12">
+        <v>56.71</v>
+      </c>
+      <c r="G33" s="12">
+        <v>43.15</v>
+      </c>
+      <c r="H33" s="12">
+        <v>13.56</v>
+      </c>
+      <c r="I33" s="12">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="12">
+        <v>150</v>
+      </c>
+      <c r="F34" s="12">
+        <v>60.82</v>
+      </c>
+      <c r="G34" s="12">
+        <v>92.5</v>
+      </c>
+      <c r="H34" s="12">
+        <v>-31.68</v>
+      </c>
+      <c r="I34" s="12">
+        <v>40.549999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="12">
+        <v>320</v>
+      </c>
+      <c r="F35" s="12">
+        <v>224.61</v>
+      </c>
+      <c r="G35" s="12">
+        <v>98.75</v>
+      </c>
+      <c r="H35" s="12">
+        <v>125.86</v>
+      </c>
+      <c r="I35" s="12">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="12">
+        <v>1385.83</v>
+      </c>
+      <c r="F36" s="12">
+        <v>911.78</v>
+      </c>
+      <c r="G36" s="12">
+        <v>903.1</v>
+      </c>
+      <c r="H36" s="12">
+        <v>8.68</v>
+      </c>
+      <c r="I36" s="12">
+        <v>65.790000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="12">
+        <v>38.76</v>
+      </c>
+      <c r="D48" s="12">
+        <v>33.14</v>
+      </c>
+      <c r="E48" s="12">
+        <v>18.43</v>
+      </c>
+      <c r="F48" s="12">
+        <v>14.71</v>
+      </c>
+      <c r="G48" s="12">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="12">
+        <v>50</v>
+      </c>
+      <c r="D49" s="12">
+        <v>36.64</v>
+      </c>
+      <c r="E49" s="12">
+        <v>18.7</v>
+      </c>
+      <c r="F49" s="12">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="G49" s="12">
+        <v>73.28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="12">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="D50" s="12">
+        <v>52.17</v>
+      </c>
+      <c r="E50" s="12">
+        <v>32.17</v>
+      </c>
+      <c r="F50" s="12">
+        <v>20</v>
+      </c>
+      <c r="G50" s="12">
+        <v>78.27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="12">
+        <v>143.07</v>
+      </c>
+      <c r="D51" s="12">
+        <v>56.71</v>
+      </c>
+      <c r="E51" s="12">
+        <v>43.15</v>
+      </c>
+      <c r="F51" s="12">
+        <v>13.56</v>
+      </c>
+      <c r="G51" s="12">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="12">
+        <v>150</v>
+      </c>
+      <c r="D52" s="12">
+        <v>60.82</v>
+      </c>
+      <c r="E52" s="12">
+        <v>92.5</v>
+      </c>
+      <c r="F52" s="12">
+        <v>-31.68</v>
+      </c>
+      <c r="G52" s="12">
+        <v>40.549999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="12">
+        <v>320</v>
+      </c>
+      <c r="D53" s="12">
+        <v>224.61</v>
+      </c>
+      <c r="E53" s="12">
+        <v>98.75</v>
+      </c>
+      <c r="F53" s="12">
+        <v>125.86</v>
+      </c>
+      <c r="G53" s="12">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1385.83</v>
+      </c>
+      <c r="D54" s="12">
+        <v>911.78</v>
+      </c>
+      <c r="E54" s="12">
+        <v>903.1</v>
+      </c>
+      <c r="F54" s="12">
+        <v>8.68</v>
+      </c>
+      <c r="G54" s="12">
+        <v>65.790000000000006</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F9" xr:uid="{BDC0F6F8-C050-4570-9916-1E19EBE7F010}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="lessThan" val="100"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="greaterThan" val="50"/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A4:F8">
-      <sortCondition descending="1" ref="D1:D9"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Результат/Лаб2/Вариант10.xlsx
+++ b/Результат/Лаб2/Вариант10.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\edu.local\public\studenthomes\24301055\My Documents\intehinprofdey\Результат\Лаб2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EFA6CC-C3E2-485A-BBA6-68A42B5A9859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E371E77B-B4C8-4339-A044-A99223D9919E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3945" windowWidth="28800" windowHeight="15375" activeTab="2" xr2:uid="{BA78F10A-6D23-4BCE-85E5-48B24FF311BA}"/>
+    <workbookView xWindow="6795" yWindow="3945" windowWidth="28800" windowHeight="15375" activeTab="3" xr2:uid="{BA78F10A-6D23-4BCE-85E5-48B24FF311BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Продажи товаров" sheetId="2" r:id="rId1"/>
     <sheet name="Функция" sheetId="9" r:id="rId2"/>
     <sheet name="ГКО" sheetId="10" r:id="rId3"/>
+    <sheet name="Расшир фильтр" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ГКО!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Расшир фильтр'!$A$4:$F$11</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">ГКО!$B$46:$G$46</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">ГКО!$A$12:$F$14</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">'Расшир фильтр'!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>№ прейскур.</t>
   </si>
@@ -135,12 +138,15 @@
   <si>
     <t xml:space="preserve">23000 RMFS </t>
   </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +176,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -335,13 +348,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3854,7 +3876,7 @@
         <f>B3</f>
         <v>2</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <f>2*B6^2+108/B6^2-59</f>
         <v>-24</v>
       </c>
@@ -3864,7 +3886,7 @@
         <f>B6-D3</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <f t="shared" ref="C7:C16" si="0">2*B7^2+108/B7^2-59</f>
         <v>-27.00595041322314</v>
       </c>
@@ -3874,7 +3896,7 @@
         <f>B7-D3</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <f t="shared" si="0"/>
         <v>-28.73</v>
       </c>
@@ -3884,7 +3906,7 @@
         <f>B8-D3</f>
         <v>2.6000000000000005</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <f t="shared" si="0"/>
         <v>-29.503668639053256</v>
       </c>
@@ -3894,7 +3916,7 @@
         <f>B9-$D$3</f>
         <v>2.8000000000000007</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <f t="shared" si="0"/>
         <v>-29.544489795918366</v>
       </c>
@@ -3904,17 +3926,17 @@
         <f>B10-$D$3</f>
         <v>3.0000000000000009</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <f t="shared" si="0"/>
         <v>-28.999999999999996</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" ref="B11:B16" si="1">B11-$D$3</f>
+        <f t="shared" ref="B12:B16" si="1">B11-$D$3</f>
         <v>3.2000000000000011</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <f t="shared" si="0"/>
         <v>-27.973124999999992</v>
       </c>
@@ -3924,7 +3946,7 @@
         <f t="shared" si="1"/>
         <v>3.4000000000000012</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <f t="shared" si="0"/>
         <v>-26.537439446366776</v>
       </c>
@@ -3934,7 +3956,7 @@
         <f t="shared" si="1"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <f t="shared" si="0"/>
         <v>-24.746666666666655</v>
       </c>
@@ -3944,7 +3966,7 @@
         <f t="shared" si="1"/>
         <v>3.8000000000000016</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <f t="shared" si="0"/>
         <v>-22.640775623268681</v>
       </c>
@@ -3954,7 +3976,7 @@
         <f t="shared" si="1"/>
         <v>4.0000000000000018</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <f t="shared" si="0"/>
         <v>-20.249999999999979</v>
       </c>
@@ -3987,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC58FE7-D1D5-4B05-86D3-D008CB4232CC}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3997,32 +4019,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -4186,22 +4208,22 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="14"/>
@@ -4212,12 +4234,12 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="L13" s="14" t="s">
         <v>32</v>
       </c>
@@ -4716,4 +4738,215 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A559DF3B-797E-4E0C-81E4-09E98651AF87}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="19">
+        <v>38.76</v>
+      </c>
+      <c r="C5" s="19">
+        <v>33.14</v>
+      </c>
+      <c r="D5" s="19">
+        <v>18.43</v>
+      </c>
+      <c r="E5" s="19">
+        <v>14.71</v>
+      </c>
+      <c r="F5" s="19">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="19">
+        <v>50</v>
+      </c>
+      <c r="C6" s="19">
+        <v>36.64</v>
+      </c>
+      <c r="D6" s="19">
+        <v>18.7</v>
+      </c>
+      <c r="E6" s="19">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="F6" s="19">
+        <v>73.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="19">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="C7" s="19">
+        <v>52.17</v>
+      </c>
+      <c r="D7" s="19">
+        <v>32.17</v>
+      </c>
+      <c r="E7" s="19">
+        <v>20</v>
+      </c>
+      <c r="F7" s="19">
+        <v>78.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="19">
+        <v>143.07</v>
+      </c>
+      <c r="C8" s="19">
+        <v>56.71</v>
+      </c>
+      <c r="D8" s="19">
+        <v>43.15</v>
+      </c>
+      <c r="E8" s="19">
+        <v>13.56</v>
+      </c>
+      <c r="F8" s="19">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="19">
+        <v>150</v>
+      </c>
+      <c r="C9" s="19">
+        <v>60.82</v>
+      </c>
+      <c r="D9" s="19">
+        <v>92.5</v>
+      </c>
+      <c r="E9" s="19">
+        <v>-31.68</v>
+      </c>
+      <c r="F9" s="19">
+        <v>40.549999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="19">
+        <v>320</v>
+      </c>
+      <c r="C10" s="19">
+        <v>224.61</v>
+      </c>
+      <c r="D10" s="19">
+        <v>98.75</v>
+      </c>
+      <c r="E10" s="19">
+        <v>125.86</v>
+      </c>
+      <c r="F10" s="19">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1385.83</v>
+      </c>
+      <c r="C11" s="19">
+        <v>911.78</v>
+      </c>
+      <c r="D11" s="19">
+        <v>903.1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>8.68</v>
+      </c>
+      <c r="F11" s="19">
+        <v>65.790000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>